--- a/code/data_process/2.Calculation_indicator_code/人工标注与API接口跑出来的课堂场景类别评估/已评估数据/doubao_705_evaluated.xlsx
+++ b/code/data_process/2.Calculation_indicator_code/人工标注与API接口跑出来的课堂场景类别评估/已评估数据/doubao_705_evaluated.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -553,7 +553,11 @@
           <t>第一个问题解决了没有？分层，</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr"/>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
       <c r="E4" t="inlineStr">
         <is>
           <t xml:space="preserve">分析过程：在这段话语中，“第一个问题解决了没有？分层”体现出老师在询问全体学生关于第一个问题的解决情况，但是并没有发起一个明确的课堂活动指令。综合上述整段话的分析过程，这段话只是老师的询问，并没有开展课堂活动的指令。
@@ -647,7 +651,11 @@
           <t>你当第一层是吧，第一层，没有吗？一到三门第一层还有，第二层呢，</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr"/>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
       <c r="E7" t="inlineStr">
         <is>
           <t xml:space="preserve">分析过程：在这段话语中，老师的表述没有体现出任何明确的开展课堂活动的指令，也没有提供关于课堂活动的具体信息。
@@ -710,7 +718,11 @@
           <t>为什么他们是最可爱的人，总写他们是最可爱的人是吧，哦，是不是？那第第二层呢？第二层是分析分喜，他们是最可爱的人分析哦，我们的份上写了哪些事件，</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr"/>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
       <c r="E9" t="inlineStr">
         <is>
           <t xml:space="preserve">分析过程：在这段话语中，老师通过提问引导学生思考和分析文本内容，如“为什么他们是最可爱的人”“第二层呢？第二层是分析……我们的份上写了哪些事件”，体现出老师发起了一个开展课堂活动的指令。首先，老师的提问面向全体学生，“我们”一词体现出这个课堂活动是由全体学生共同参与的。进一步地，老师要求学生思考和分析问题，思考活动是个体的大脑活动，无法集体整齐划一地开展，只能由每一个学生独自完成。综合上述整段话的分析过程，这个课堂活动是由全体学生参与、且每一个学生独自完成的活动，符合“独立练习”的特征。所以，在老师说完这段话后，预测的课堂活动类别是“独立练习”，因为执行该课堂活动的指令刚刚发出，因此课堂活动的进行状态为“开始”。
@@ -737,7 +749,11 @@
           <t>后面是古风二次战役中的一个松古风，后面的就是后面就是马马玉霞从东幼孩子。对嗯，还有一件事情呢，</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr"/>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
       <c r="E10" t="inlineStr">
         <is>
           <t xml:space="preserve">分析过程：这段待分析文本没有体现出老师发起开展课堂活动的指令，内容逻辑不清晰，无法明确课堂活动的类型。
@@ -764,7 +780,11 @@
           <t>写了分写了这三个他们最可爱的事件。嗯，那第三层呢总还是总写还是总写，所以是总总分总啊，这是这是热门的概括，以及概括的依据，先把掌声送给乐门，</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr"/>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
       <c r="E11" t="inlineStr">
         <is>
           <t xml:space="preserve">分析过程：在这段话语中，“先把掌声送给乐门”体现出老师对乐门同学的表扬，但是并没有发起一个明确的课堂活动指令。综合上述整段话的分析过程，这段话只是老师在对学生进行表扬，并没有开展课堂活动的指令。所以，在老师说完这段话后，无法识别出任何预设的课堂活动类别。
@@ -827,7 +847,11 @@
           <t>呃首先还是我，我其实觉得我可以，</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr"/>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
       <c r="E13" t="inlineStr">
         <is>
           <t xml:space="preserve">分析过程：这段话语不包含老师发起课堂活动的指令，无法从中判断课堂活动的类别和状态。
@@ -859,7 +883,11 @@
           <t>第二段我就是从第四段到第四段到，第第八八段，第九段计算到第九段讲的就是他们打仗嘛。呃，其实我然后呢第三个层次就是，那就第十段第十段到第十段到第十二段。</t>
         </is>
       </c>
-      <c r="D14" t="inlineStr"/>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
       <c r="E14" t="inlineStr">
         <is>
           <t xml:space="preserve">分析过程：在这段话语中，老师只是在讲解课文内容，没有发起任何课堂活动的指令。
@@ -963,7 +991,11 @@
           <t>是不是？韩老师刚刚我记得讲的，他他说这个马玉祥是很可爱嘛，他早就比可爱。那我们应该写他这个纯朴可爱，还有韩老师讲那个孙悟空战斗的一个战士，你不你这后面不是就是你的，你的血和韩老师说要吻合啊，</t>
         </is>
       </c>
-      <c r="D17" t="inlineStr"/>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
       <c r="E17" t="inlineStr">
         <is>
           <t xml:space="preserve">分析过程：在这段话语中，老师只是在回顾和讨论之前的内容，没有发起新的课堂活动指令，也没有明确提及让学生进行某种特定的课堂活动。
@@ -995,7 +1027,11 @@
           <t>对我觉得这三个词好精炼肯吃苦贡献多，要用少漂亮。真的这种精炼的语言，这不是底老师讲的内容吧，但是他自己提炼的，我觉得提炼的非常漂亮，为什么可爱很吃苦，贡献多要的少，不思无私。嗯，</t>
         </is>
       </c>
-      <c r="D18" t="inlineStr"/>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
       <c r="E18" t="inlineStr">
         <is>
           <t xml:space="preserve">分析过程：在这段话语中，老师只是在对某个内容进行评价和讲解，没有发起任何课堂活动的指令。
@@ -1022,7 +1058,11 @@
           <t>没有哈，谢谢谢谢谢。这这小第第七小组第，</t>
         </is>
       </c>
-      <c r="D19" t="inlineStr"/>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
       <c r="E19" t="inlineStr">
         <is>
           <t xml:space="preserve">分析过程：这段话语没有体现出老师发起任何与课堂活动相关的指令或描述，因此无法预测课堂活动。
@@ -1049,7 +1089,11 @@
           <t>我觉得会更好。比如说这这种无私奉献，其实我要的就是这个无私奉献这个词是吧？很吃苦贡献，多无私奉献嘛，要少典前的无私奉献，多么奉献呃，对敌人的痛恨，体现了他对人民的爱，这叫这叫什么？</t>
         </is>
       </c>
-      <c r="D20" t="inlineStr"/>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
       <c r="E20" t="inlineStr">
         <is>
           <t xml:space="preserve">分析过程：在这段话语中，老师主要在进行陈述和提问，并没有发起一个明确的开展课堂活动的指令。
@@ -1153,7 +1197,11 @@
           <t>对中国人的那种热情，</t>
         </is>
       </c>
-      <c r="D23" t="inlineStr"/>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
       <c r="E23" t="inlineStr">
         <is>
           <t xml:space="preserve">分析过程：这段待分析文本不完整，且未体现出老师发起开展课堂活动的指令，无法从中判断课堂活动的类别及状态。
@@ -1180,7 +1228,11 @@
           <t>嗯，是作者对中你是说作者对自己人的热情吗？</t>
         </is>
       </c>
-      <c r="D24" t="inlineStr"/>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
       <c r="E24" t="inlineStr">
         <is>
           <t xml:space="preserve">分析过程：这段话语中，老师只是在提出一个问题，并没有发起任何开展课堂活动的指令。
@@ -1212,7 +1264,11 @@
           <t>作者不是中国人，但是志愿军对作者的热情啊，</t>
         </is>
       </c>
-      <c r="D25" t="inlineStr"/>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
       <c r="E25" t="inlineStr">
         <is>
           <t xml:space="preserve">分析过程：在这段话语中，没有体现出老师发起任何开展课堂活动的指令，无法判断课堂活动的类别及状态。
@@ -1316,7 +1372,11 @@
           <t>不听就出去要做就好好做，不做，就站在后面去，排比吗？继续排比是修辞手法表达方式有五种，一种是继续。</t>
         </is>
       </c>
-      <c r="D28" t="inlineStr"/>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
       <c r="E28" t="inlineStr">
         <is>
           <t xml:space="preserve">分析过程：在这段话语中，老师没有发起明确的课堂活动指令，只是在讲解排比这种修辞手法，并提出了一些问题让学生思考。综合上述整段话的分析过程，这个课堂活动无法确定具体的类别和进行状态。
@@ -1415,7 +1475,11 @@
           <t>因为它有什么万能性，</t>
         </is>
       </c>
-      <c r="D31" t="inlineStr"/>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
       <c r="E31" t="inlineStr">
         <is>
           <t xml:space="preserve">分析过程：这段话语中没有体现出老师发起课堂活动的指令，只是在陈述一个内容。
@@ -1447,7 +1511,11 @@
           <t>只不过从不同的角度去写。举个例子来讲啊，好，其实描写我们从小学也接触了这篇文章里边这篇文章谁是最可爱，谁是最可爱的人，谁最可爱的人。刚刚我们那个练习题是讲这种这两种方式啊，但其实有我有这两种方式呢，</t>
         </is>
       </c>
-      <c r="D32" t="inlineStr"/>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
       <c r="E32" t="inlineStr">
         <is>
           <t xml:space="preserve">分析过程：在这段话语中，老师只是在讲解知识点和举例，并没有发起任何明确的课堂活动指令。
@@ -1474,7 +1542,11 @@
           <t>记住了中国风战斗，对马玉祥救小孩儿还有防灯，所以运用了主要是在这里运用了继续和描写，就是在中间第二部分是吧？继续描写老师，</t>
         </is>
       </c>
-      <c r="D33" t="inlineStr"/>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
       <c r="E33" t="inlineStr">
         <is>
           <t xml:space="preserve">分析过程：在这段话语中，老师主要在对之前的内容进行讲解和总结，并没有发起一个明确的课堂活动指令。
@@ -1505,7 +1577,11 @@
           <t>好，这个说明呢是不带感情的。就是我们要区分说明和议论和抒情说明说什么什么名字，</t>
         </is>
       </c>
-      <c r="D34" t="inlineStr"/>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
       <c r="E34" t="inlineStr">
         <is>
           <t xml:space="preserve">分析过程：在这段话语中，老师主要在讲解说明、议论和抒情的区别，但没有明确发起一个开展课堂活动的指令，也没有提到学生要具体进行何种课堂活动。
@@ -1537,7 +1613,11 @@
           <t>其实说明的它会涉及到些说明方法下定义做诠释列数字列数字举例子，列图表做比较打，比方用这些方法来给你讲一种科普知识，对，讲明白。所以我这样讲，你就想到了数学的，</t>
         </is>
       </c>
-      <c r="D35" t="inlineStr"/>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
       <c r="E35" t="inlineStr">
         <is>
           <t xml:space="preserve">分析过程：在这段话语中，老师主要在讲解说明方法的相关内容，没有发起明确的课堂活动指令，没有体现出要求学生参与特定课堂活动的表述。
@@ -1569,7 +1649,11 @@
           <t>还为你列数字列图表，是不是？所以跟一些理科的东西挂钩，说明这种方法表达方式啊。好，那咱们看议论和抒情跟我觉得好理解的是什么？</t>
         </is>
       </c>
-      <c r="D36" t="inlineStr"/>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
       <c r="E36" t="inlineStr">
         <is>
           <t xml:space="preserve">分析过程：在这段话语中，老师一直在进行讲解和提问，并没有发起明确的课堂活动指令。综合上述整段话的分析过程，这段话只是老师在进行知识讲解和引导思考，没有涉及到具体的课堂活动安排。
@@ -1596,7 +1680,11 @@
           <t>我们在前两天讲那个黄河送的时候，主要讲了间接抒情和那个直接抒情。我在讲土地的誓言的时候，又讲到了一种方法土地的誓言。在网课期间，我讲土地的誓言讲到了一种直接抒情的方法，直接告诉你情感，</t>
         </is>
       </c>
-      <c r="D37" t="inlineStr"/>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
       <c r="E37" t="inlineStr">
         <is>
           <t xml:space="preserve">分析过程：在这段话语中，老师只是在回顾之前讲解的内容，并没有发起一个明确的开展课堂活动的指令。
@@ -1628,7 +1716,11 @@
           <t>这种情感是直接抒情中的，用典型的表达吗？典典典型的手法叫直抒胸臆，也叫呼告有印象的举手，因为我就知道这些人网课不认真听了，而且不举手的放下呼告。什么叫呼告呢？</t>
         </is>
       </c>
-      <c r="D38" t="inlineStr"/>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
       <c r="E38" t="inlineStr">
         <is>
           <t xml:space="preserve">分析过程：在这段话语中，“有印象的举手”体现出老师发起了一个开展课堂活动的指令，邀请学生通过举手来表明自己对知识的印象。进一步地，“不举手的放下呼告”体现出老师对举手这一活动的补充说明。综合上述整段话的分析过程，这个课堂活动是由全体学生参与、且通过举手来反馈自己学习情况的活动，符合“个体发言”的特征。所以，在老师说完这段话后，预测的课堂活动类别是“个体发言”，因为执行该课堂活动的指令刚刚发出，因此课堂活动的进行状态为“开始”。
@@ -1763,7 +1855,11 @@
           <t>五种表达方式，表达自己的观点。什么叫表达观点？</t>
         </is>
       </c>
-      <c r="D42" t="inlineStr"/>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
       <c r="E42" t="inlineStr">
         <is>
           <t xml:space="preserve">分析过程：在这段话语中，“五种表达方式，表达自己的观点”体现出老师发起了一个开展课堂活动的指令。首先，“五种表达方式”明确了表达的方式要求，“表达自己的观点”体现出老师要求学生运用这些方式来阐述自己的观点。由于阐述观点是个体经过大脑思考后才能得出结论的活动，这种思考活动无法集体整齐划一地开展，只能由每一个学生独自完成。综合上述整段话的分析过程，这个课堂活动是由全体学生参与、且每一个学生独自完成的活动，符合“独立练习”的特征。所以，在老师说完这段话后，预测的课堂活动类别是“独立练习”，因为执行该课堂活动的指令刚刚发出，因此课堂活动的进行状态为“开始”。
@@ -1924,7 +2020,11 @@
           <t>那走继续找啊，继续。</t>
         </is>
       </c>
-      <c r="D47" t="inlineStr"/>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
       <c r="E47" t="inlineStr">
         <is>
           <t xml:space="preserve">分析过程：在这段话语中，“那走继续找啊，继续。”体现出老师在催促学生继续进行某个活动，但没有明确说明活动的具体内容和参与形式。综合上述整段话的分析过程，这个课堂活动无法判定具体的活动类别和参与形式，符合“集体未知”的特征。所以，在老师说完这段话后，预测的课堂活动类别是“集体未知”，因为执行该课堂活动的指令刚刚发出，因此课堂活动的进行状态为“开始”。
